--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf015e4825c2f48e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc4dfc8f69a0749d8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc4dfc8f69a0749d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Reb59e3a5f3ba4796"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Reb59e3a5f3ba4796"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re3d5088ee330433a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re3d5088ee330433a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Reb57a6e6ff5a439a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Reb57a6e6ff5a439a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdee4ddfffbe54557"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet_multiple_styled.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdee4ddfffbe54557"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9ad8568c756146ee"/>
   </x:sheets>
 </x:workbook>
 </file>
